--- a/AutomationPlanPOM/Excel/data.xlsx
+++ b/AutomationPlanPOM/Excel/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Canon EOS 5D</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Product 4</t>
+  </si>
+  <si>
+    <t>HP LP3065</t>
+  </si>
+  <si>
+    <t>Hewlett-Packard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 300</t>
+  </si>
+  <si>
+    <t>$100.00</t>
   </si>
 </sst>
 </file>
@@ -377,19 +392,19 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
